--- a/stations.xlsx
+++ b/stations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muje\Projects\WaterBench-MIKE21SW-SouthernNorthSea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9C19C337-C255-4CB8-B90B-697D5C40A601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7189ACB-3C21-4593-9BBA-1B31AF3CBFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2565" windowWidth="12210" windowHeight="11295" xr2:uid="{232B5731-F377-4082-AC51-0C839DA9EBD5}"/>
+    <workbookView xWindow="30690" yWindow="1755" windowWidth="24810" windowHeight="11895" xr2:uid="{232B5731-F377-4082-AC51-0C839DA9EBD5}"/>
   </bookViews>
   <sheets>
     <sheet name="stations" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>station</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>AkkaertSouthwestBuoy</t>
   </si>
   <si>
-    <t>Europlatform2</t>
-  </si>
-  <si>
     <t>WaddenEierlandseGat</t>
   </si>
   <si>
@@ -46,15 +34,9 @@
     <t>F3platform</t>
   </si>
   <si>
-    <t>2.95</t>
-  </si>
-  <si>
     <t>J61</t>
   </si>
   <si>
-    <t>3.22</t>
-  </si>
-  <si>
     <t>K13a</t>
   </si>
   <si>
@@ -68,6 +50,120 @@
   </si>
   <si>
     <t>Q1</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Long name</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>AKZ</t>
+  </si>
+  <si>
+    <t>Europlatform</t>
+  </si>
+  <si>
+    <t>EPL</t>
+  </si>
+  <si>
+    <t>Eld</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>FINO1</t>
+  </si>
+  <si>
+    <t>LEG</t>
+  </si>
+  <si>
+    <t>IJVA</t>
+  </si>
+  <si>
+    <t>IJVB</t>
+  </si>
+  <si>
+    <t>Ijmuiden Ver A</t>
+  </si>
+  <si>
+    <t>Ijmuiden Ver B</t>
+  </si>
+  <si>
+    <t>NWA</t>
+  </si>
+  <si>
+    <t>NWB</t>
+  </si>
+  <si>
+    <t>Nederwiek A</t>
+  </si>
+  <si>
+    <t>Nederwiek B</t>
+  </si>
+  <si>
+    <t>WHI</t>
+  </si>
+  <si>
+    <t>Westhinder</t>
+  </si>
+  <si>
+    <t>Data coverage</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <t>CMEMS</t>
+  </si>
+  <si>
+    <t>RVO/RPS</t>
+  </si>
+  <si>
+    <t>Hm0, Tz</t>
+  </si>
+  <si>
+    <t>Hm0, TP, Tz, MWD</t>
+  </si>
+  <si>
+    <t>Hm0, TP, Tz</t>
+  </si>
+  <si>
+    <t>Hm0, TP, Tz, Tm01, Tm02, MWD, PWD, DSD, Spectra</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Ready for download</t>
+  </si>
+  <si>
+    <t>Not on CMEMS</t>
   </si>
 </sst>
 </file>
@@ -930,158 +1026,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AE3699-4FC1-4F2F-B49F-E90B5736E385}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>51416</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2819</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>53277</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4662</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>51998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3276</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>63526</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>51416</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2819</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C6" s="1">
+        <v>54854</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4728</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>5199861</v>
-      </c>
-      <c r="C3" s="1">
-        <v>327639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>53817</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2950</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>5327694</v>
-      </c>
-      <c r="C4" s="1">
-        <v>466167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>53218</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3220</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>635257</v>
-      </c>
-      <c r="C5" s="1">
-        <v>210817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>53267</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3633</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>5485389</v>
-      </c>
-      <c r="C6" s="1">
-        <v>47275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6202108</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5401433</v>
-      </c>
-      <c r="C7" s="1">
-        <v>658385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C13" s="1">
+        <v>53614</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4961</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>51926</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3670</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
-        <v>5381663</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5321778</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5326671</v>
-      </c>
-      <c r="C10" s="1">
-        <v>363327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1">
-        <v>536138</v>
-      </c>
-      <c r="C11" s="1">
-        <v>49607</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5192583</v>
-      </c>
-      <c r="C12" s="1">
-        <v>366972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <v>529264</v>
-      </c>
-      <c r="C13" s="1">
-        <v>41506</v>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1">
+        <v>52926</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4151</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/stations.xlsx
+++ b/stations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muje\Projects\WaterBench-MIKE21SW-SouthernNorthSea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7189ACB-3C21-4593-9BBA-1B31AF3CBFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B8FA98-1A75-494B-835D-F537F15DC686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="1755" windowWidth="24810" windowHeight="11895" xr2:uid="{232B5731-F377-4082-AC51-0C839DA9EBD5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{232B5731-F377-4082-AC51-0C839DA9EBD5}"/>
   </bookViews>
   <sheets>
     <sheet name="stations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
   <si>
     <t>AkkaertSouthwestBuoy</t>
   </si>
@@ -28,9 +28,6 @@
     <t>WaddenEierlandseGat</t>
   </si>
   <si>
-    <t>F16</t>
-  </si>
-  <si>
     <t>F3platform</t>
   </si>
   <si>
@@ -64,12 +61,6 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>AKZ</t>
   </si>
   <si>
@@ -100,15 +91,6 @@
     <t>IJVA</t>
   </si>
   <si>
-    <t>IJVB</t>
-  </si>
-  <si>
-    <t>Ijmuiden Ver A</t>
-  </si>
-  <si>
-    <t>Ijmuiden Ver B</t>
-  </si>
-  <si>
     <t>NWA</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
     <t>Westhinder</t>
   </si>
   <si>
-    <t>Data coverage</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
@@ -142,12 +121,6 @@
     <t>RVO/RPS</t>
   </si>
   <si>
-    <t>Hm0, Tz</t>
-  </si>
-  <si>
-    <t>Hm0, TP, Tz, MWD</t>
-  </si>
-  <si>
     <t>Hm0, TP, Tz</t>
   </si>
   <si>
@@ -164,6 +137,54 @@
   </si>
   <si>
     <t>Not on CMEMS</t>
+  </si>
+  <si>
+    <t>VHM0, VTZA</t>
+  </si>
+  <si>
+    <t>VHM0, VTZA, VTPK</t>
+  </si>
+  <si>
+    <t>IJmuidenMunitiestort</t>
+  </si>
+  <si>
+    <t>VHM0, VTZA, VMDR, VTPK</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>KeetenBoei</t>
+  </si>
+  <si>
+    <t>KwintebankBuoy</t>
+  </si>
+  <si>
+    <t>Kwint</t>
+  </si>
+  <si>
+    <t>MaeslantkeringZeezijdeNoordMeetpaal</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>NieuwpoortBuoy</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Nym</t>
+  </si>
+  <si>
+    <t>Nymindegab</t>
+  </si>
+  <si>
+    <t>Oosterschelde</t>
+  </si>
+  <si>
+    <t>Oost</t>
   </si>
 </sst>
 </file>
@@ -647,10 +668,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1026,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AE3699-4FC1-4F2F-B49F-E90B5736E385}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,50 +1061,43 @@
     <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1">
@@ -1090,364 +1107,461 @@
         <v>2819</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>51998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3276</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>54854</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4728</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1">
+        <v>52550</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4058</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>53817</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2950</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>53218</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3220</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>53267</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3633</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1">
+        <v>51608</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3966</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C10" s="1">
+        <v>51349</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2706</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>53277</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4662</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1">
-        <v>51998</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3276</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>63526</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2108</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>54854</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4728</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>53614</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4961</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>51926</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3670</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1">
+        <v>51961</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>53817</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2950</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>53218</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3220</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>53267</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3633</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>53614</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4961</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1">
-        <v>51926</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3670</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
       <c r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1">
+        <v>51161</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2691</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
       <c r="F16" t="s">
         <v>39</v>
       </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C17" s="1">
+        <v>55810</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7941</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1">
+        <v>51644</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3481</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
         <v>52926</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D19" s="1">
         <v>4151</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>53277</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4662</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>513811</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2436</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
         <v>38</v>
-      </c>
-      <c r="H17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/stations.xlsx
+++ b/stations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muje\Projects\WaterBench-MIKE21SW-SouthernNorthSea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B8FA98-1A75-494B-835D-F537F15DC686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA95179-6982-4B78-B3E4-0EAD6C8CBC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{232B5731-F377-4082-AC51-0C839DA9EBD5}"/>
+    <workbookView xWindow="7260" yWindow="2535" windowWidth="19125" windowHeight="11235" xr2:uid="{232B5731-F377-4082-AC51-0C839DA9EBD5}"/>
   </bookViews>
   <sheets>
     <sheet name="stations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
   <si>
     <t>AkkaertSouthwestBuoy</t>
   </si>
@@ -64,9 +64,6 @@
     <t>AKZ</t>
   </si>
   <si>
-    <t>Europlatform</t>
-  </si>
-  <si>
     <t>EPL</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>L9</t>
   </si>
   <si>
-    <t>FINO1</t>
-  </si>
-  <si>
     <t>LEG</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>RVO/RPS</t>
   </si>
   <si>
-    <t>Hm0, TP, Tz</t>
-  </si>
-  <si>
     <t>Hm0, TP, Tz, Tm01, Tm02, MWD, PWD, DSD, Spectra</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>Ready for download</t>
   </si>
   <si>
-    <t>Not on CMEMS</t>
-  </si>
-  <si>
     <t>VHM0, VTZA</t>
   </si>
   <si>
@@ -185,6 +173,33 @@
   </si>
   <si>
     <t>Oost</t>
+  </si>
+  <si>
+    <t>A121</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Europlatform2</t>
+  </si>
+  <si>
+    <t>Ikke fundet</t>
+  </si>
+  <si>
+    <t>dårlig datakvalitet</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>data for de første 5 måneder</t>
+  </si>
+  <si>
+    <t>fundet</t>
+  </si>
+  <si>
+    <t>ikke fundet</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AE3699-4FC1-4F2F-B49F-E90B5736E385}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,10 +1079,11 @@
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1081,19 +1097,22 @@
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1107,21 +1126,24 @@
         <v>2819</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1">
         <v>51998</v>
@@ -1130,18 +1152,21 @@
         <v>3276</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -1153,21 +1178,24 @@
         <v>4728</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>52550</v>
@@ -1176,16 +1204,19 @@
         <v>4058</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1199,16 +1230,19 @@
         <v>2950</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1222,16 +1256,19 @@
         <v>3220</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1245,21 +1282,24 @@
         <v>3633</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C9" s="1">
         <v>51608</v>
@@ -1268,21 +1308,24 @@
         <v>3966</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1">
         <v>51349</v>
@@ -1291,18 +1334,21 @@
         <v>2706</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>6</v>
@@ -1314,18 +1360,21 @@
         <v>4961</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1337,21 +1386,24 @@
         <v>3670</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1">
         <v>51961</v>
@@ -1360,59 +1412,68 @@
         <v>4159</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
         <v>34</v>
       </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
         <v>34</v>
       </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1">
         <v>51161</v>
@@ -1421,21 +1482,24 @@
         <v>2691</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1">
         <v>55810</v>
@@ -1444,21 +1508,24 @@
         <v>7941</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1">
         <v>51644</v>
@@ -1467,16 +1534,19 @@
         <v>3481</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -1490,18 +1560,21 @@
         <v>4151</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
@@ -1513,21 +1586,24 @@
         <v>4662</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>513811</v>
@@ -1536,32 +1612,113 @@
         <v>2436</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" t="s">
         <v>33</v>
       </c>
-      <c r="G26" t="s">
-        <v>38</v>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>6201058</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>6200145</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>6201050</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>6200293</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>6201045</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>6200288</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>6200044</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>6201059</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>6200144</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>6201047</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
